--- a/EHD/Multiplier-working-12x30.xlsx
+++ b/EHD/Multiplier-working-12x30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/MolecularKinetics/EHD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1FF901-A614-6446-92AC-4FBF4A41ADCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6C86F8-E3BA-2545-AEF8-61EAD23A1DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="26580" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B34" s="10">
         <v>1.5</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B35" s="10">
         <v>0.75</v>
@@ -2522,7 +2522,7 @@
     <row r="36" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <f>A34*2.54</f>
-        <v>3.81</v>
+        <v>2.54</v>
       </c>
       <c r="B36" s="10">
         <f>B34*2.54</f>
@@ -2551,7 +2551,7 @@
     <row r="37" spans="1:20" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <f>A35*2.54</f>
-        <v>1.905</v>
+        <v>1.27</v>
       </c>
       <c r="B37" s="10">
         <f>B35*2.54</f>
@@ -2580,7 +2580,7 @@
     <row r="38" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <f>PI()*(A36/2)^2</f>
-        <v>11.400918279693698</v>
+        <v>5.0670747909749769</v>
       </c>
       <c r="B38" s="52">
         <f>PI()*(B36/2)^2</f>
@@ -2619,7 +2619,7 @@
     <row r="39" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <f>A38*A37</f>
-        <v>21.718749322816496</v>
+        <v>6.4351849845382212</v>
       </c>
       <c r="B39" s="52">
         <f>B38*B37</f>
@@ -2694,7 +2694,7 @@
     <row r="41" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <f>A39*A40</f>
-        <v>347.49998916506394</v>
+        <v>102.96295975261154</v>
       </c>
       <c r="B41" s="52">
         <f>B39*B40</f>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="42" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B42" s="10">
         <v>40</v>
@@ -3078,7 +3078,7 @@
     <row r="50" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="53">
         <f>(A49*A47)-(A41+A42)</f>
-        <v>1784.3749431165859</v>
+        <v>2048.9119725290384</v>
       </c>
       <c r="B50" s="53">
         <f>(B49*B47)-(B41+B42)</f>
@@ -3121,7 +3121,7 @@
     <row r="51" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="53">
         <f>A50*A44</f>
-        <v>1605.9374488049273</v>
+        <v>1844.0207752761346</v>
       </c>
       <c r="B51" s="53">
         <f>B50*B44</f>
@@ -3140,7 +3140,7 @@
     <row r="52" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="52">
         <f>A51/A43</f>
-        <v>3.5373071559579894</v>
+        <v>4.0617197693306926</v>
       </c>
       <c r="B52" s="52">
         <f>B51/B43</f>
@@ -3169,7 +3169,7 @@
     <row r="53" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="53">
         <f>A50/29.5</f>
-        <v>60.487286207341896</v>
+        <v>69.454643136577573</v>
       </c>
       <c r="B53" s="53">
         <f>B50/29.5</f>
@@ -3197,7 +3197,7 @@
     <row r="54" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="52">
         <f>A52*16</f>
-        <v>56.59691449532783</v>
+        <v>64.987516309291081</v>
       </c>
       <c r="B54" s="52">
         <f>B52*16</f>
